--- a/tests/fixtures/orderforms/1508.35.balsamic_umi.xlsx
+++ b/tests/fixtures/orderforms/1508.35.balsamic_umi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B58096B-0BE8-6F49-9E36-E6433CB1B880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C12D74E-75F1-EF49-9F05-17FA96D10AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59080" yWindow="-13500" windowWidth="29880" windowHeight="33360" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-13500" windowWidth="60160" windowHeight="33360" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="839">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3780,6 +3780,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>cytology (fixed)</t>
   </si>
 </sst>
 </file>
@@ -5976,8 +5979,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -28541,7 +28544,7 @@
         <v>67</v>
       </c>
       <c r="I30" s="82" t="s">
-        <v>133</v>
+        <v>838</v>
       </c>
       <c r="J30" s="83" t="s">
         <v>93</v>
@@ -71715,12 +71718,6 @@
           </x14:formula1>
           <xm:sqref>D15:D394</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BE497A2B-81FE-9B4E-B96E-C607ADE86557}">
-          <x14:formula1>
-            <xm:f>'Drop-down lists'!$G$2:$G$21</xm:f>
-          </x14:formula1>
-          <xm:sqref>I15:I394</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64EB9F58-6FDA-8B4A-B5D0-278667DD507F}">
           <x14:formula1>
             <xm:f>'Drop-down lists'!$F$2:$F$209</xm:f>
@@ -71757,6 +71754,12 @@
           </x14:formula1>
           <xm:sqref>C15 C16:C17 C19:C394 C18</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BE497A2B-81FE-9B4E-B96E-C607ADE86557}">
+          <x14:formula1>
+            <xm:f>'Drop-down lists'!$G$2:$G$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>I15:I394</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -71770,8 +71773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL313"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -72184,7 +72187,7 @@
         <v>114</v>
       </c>
       <c r="G10" s="123" t="s">
-        <v>536</v>
+        <v>838</v>
       </c>
       <c r="M10" s="118" t="s">
         <v>116</v>
@@ -72208,7 +72211,7 @@
         <v>118</v>
       </c>
       <c r="G11" s="123" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M11" s="122" t="s">
         <v>120</v>
@@ -72230,8 +72233,8 @@
       <c r="F12" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="138" t="s">
-        <v>562</v>
+      <c r="G12" s="123" t="s">
+        <v>535</v>
       </c>
       <c r="M12" s="122" t="s">
         <v>125</v>
@@ -72254,8 +72257,8 @@
       <c r="F13" s="116" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="123" t="s">
-        <v>110</v>
+      <c r="G13" s="138" t="s">
+        <v>562</v>
       </c>
       <c r="M13" s="118" t="s">
         <v>130</v>
@@ -72278,8 +72281,8 @@
       <c r="F14" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="116" t="s">
-        <v>115</v>
+      <c r="G14" s="123" t="s">
+        <v>110</v>
       </c>
       <c r="M14" s="122" t="s">
         <v>134</v>
@@ -72304,7 +72307,7 @@
         <v>137</v>
       </c>
       <c r="G15" s="116" t="s">
-        <v>532</v>
+        <v>115</v>
       </c>
       <c r="M15" s="122" t="s">
         <v>139</v>
@@ -72329,7 +72332,7 @@
         <v>141</v>
       </c>
       <c r="G16" s="116" t="s">
-        <v>119</v>
+        <v>532</v>
       </c>
       <c r="M16" s="118" t="s">
         <v>142</v>
@@ -72354,7 +72357,7 @@
         <v>145</v>
       </c>
       <c r="G17" s="116" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M17" s="122" t="s">
         <v>146</v>
@@ -72378,7 +72381,7 @@
         <v>148</v>
       </c>
       <c r="G18" s="116" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M18" s="118" t="s">
         <v>149</v>
@@ -72402,7 +72405,7 @@
         <v>151</v>
       </c>
       <c r="G19" s="116" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M19" s="122" t="s">
         <v>152</v>
@@ -72426,7 +72429,7 @@
         <v>154</v>
       </c>
       <c r="G20" s="116" t="s">
-        <v>533</v>
+        <v>133</v>
       </c>
       <c r="M20" s="122" t="s">
         <v>155</v>
@@ -72450,7 +72453,7 @@
         <v>157</v>
       </c>
       <c r="G21" s="116" t="s">
-        <v>138</v>
+        <v>533</v>
       </c>
       <c r="M21" s="118" t="s">
         <v>158</v>
@@ -72474,6 +72477,9 @@
       <c r="F22" s="116" t="s">
         <v>160</v>
       </c>
+      <c r="G22" s="116" t="s">
+        <v>138</v>
+      </c>
       <c r="M22" s="122" t="s">
         <v>161</v>
       </c>
@@ -72512,7 +72518,6 @@
       <c r="F24" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="126"/>
       <c r="M24" s="118" t="s">
         <v>168</v>
       </c>
@@ -72652,6 +72657,7 @@
       <c r="F31" s="116" t="s">
         <v>189</v>
       </c>
+      <c r="G31" s="126"/>
       <c r="M31" s="122" t="s">
         <v>190</v>
       </c>
@@ -74724,7 +74730,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eJGU3TnrM7TUS36P6EF6OoUepfRxqvEYBttmdh2jpK/p0PFzl3txM9S88hoDVu8ScxrhCTA1475ID05WI3/y1w==" saltValue="ht+aVAqcEGcaWx2xT5yeQg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2HfNAnAZe8cw1Z6kX7VEJqzcxnBHVYx2u05k0VaWJMR6E3b7ON7OBaPqFk9OYbsA9Mi+lUZI7YvAAM9f3wFtdQ==" saltValue="UO/mt68fhWrWb1Jn+kDPuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/tests/fixtures/orderforms/1508.35.balsamic_umi.xlsx
+++ b/tests/fixtures/orderforms/1508.35.balsamic_umi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C12D74E-75F1-EF49-9F05-17FA96D10AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66C5CDA-9402-3D43-90DB-DC7ABE8E92AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-13500" windowWidth="60160" windowHeight="33360" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28960" yWindow="-13320" windowWidth="29840" windowHeight="33020" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -2319,9 +2319,6 @@
       <t xml:space="preserve">Options available in drop-down list.
 </t>
     </r>
-  </si>
-  <si>
-    <t>This information is required  for data analysis with MIP (germline) and Tomte</t>
   </si>
   <si>
     <t>This information is optional for FFPE samples</t>
@@ -3783,6 +3780,9 @@
   </si>
   <si>
     <t>cytology (fixed)</t>
+  </si>
+  <si>
+    <t>This information is required  for data analysis with MIP, raredisease (germline) and Tomte</t>
   </si>
 </sst>
 </file>
@@ -5654,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="91" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="92" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5702,17 +5702,17 @@
     </row>
     <row r="18" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="95" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="28" x14ac:dyDescent="0.15">
       <c r="A19" s="96" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="140" x14ac:dyDescent="0.15">
       <c r="A20" s="96" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -5722,7 +5722,7 @@
     </row>
     <row r="22" spans="1:1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="98" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -5732,7 +5732,7 @@
     </row>
     <row r="24" spans="1:1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="96" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="26" customHeight="1" x14ac:dyDescent="0.15">
@@ -5747,27 +5747,27 @@
     </row>
     <row r="27" spans="1:1" ht="41" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="96" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="112" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="96" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="95" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="95" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="127" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="155" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
@@ -5789,7 +5789,7 @@
     </row>
     <row r="35" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="96" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -5806,20 +5806,20 @@
     </row>
     <row r="38" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="95" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B38" s="94"/>
       <c r="D38" s="94"/>
     </row>
     <row r="39" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="141" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D39" s="94"/>
     </row>
     <row r="40" spans="1:4" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="95" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -5859,7 +5859,7 @@
     </row>
     <row r="48" spans="1:4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="98" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
@@ -5879,7 +5879,7 @@
     </row>
     <row r="52" spans="1:1" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="95" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
@@ -5889,12 +5889,12 @@
     </row>
     <row r="54" spans="1:1" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="109" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="95" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -5909,7 +5909,7 @@
     </row>
     <row r="58" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="95" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -5979,8 +5979,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9:X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -12299,7 +12299,7 @@
       </c>
       <c r="T9"/>
       <c r="U9" s="163" t="s">
-        <v>682</v>
+        <v>838</v>
       </c>
       <c r="V9" s="164"/>
       <c r="W9" s="164"/>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="AA9" s="34"/>
       <c r="AB9" s="161" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AC9" s="161"/>
       <c r="AD9" s="161"/>
@@ -13630,7 +13630,7 @@
     </row>
     <row r="15" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="65" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B15" s="66" t="s">
         <v>66</v>
@@ -13642,7 +13642,7 @@
         <v>489</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F15" s="67" t="s">
         <v>563</v>
@@ -13666,14 +13666,14 @@
         <v>20</v>
       </c>
       <c r="M15" s="107" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N15" s="84" t="s">
         <v>64</v>
       </c>
       <c r="O15" s="49"/>
       <c r="P15" s="70" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="Q15" s="85" t="s">
         <v>72</v>
@@ -13706,13 +13706,13 @@
         <v>5</v>
       </c>
       <c r="AH15" s="70" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AI15" s="88">
         <v>10</v>
       </c>
       <c r="AJ15" s="70" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AK15"/>
       <c r="AL15"/>
@@ -14707,7 +14707,7 @@
     </row>
     <row r="16" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="65" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B16" s="66" t="s">
         <v>66</v>
@@ -14719,7 +14719,7 @@
         <v>489</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F16" s="67" t="s">
         <v>563</v>
@@ -14743,7 +14743,7 @@
         <v>21</v>
       </c>
       <c r="M16" s="107" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="N16" s="84" t="s">
         <v>74</v>
@@ -15768,7 +15768,7 @@
     </row>
     <row r="17" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="65" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B17" s="66" t="s">
         <v>66</v>
@@ -15780,7 +15780,7 @@
         <v>489</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F17" s="67" t="s">
         <v>563</v>
@@ -15804,7 +15804,7 @@
         <v>22</v>
       </c>
       <c r="M17" s="107" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="N17" s="84" t="s">
         <v>74</v>
@@ -16825,7 +16825,7 @@
     </row>
     <row r="18" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="65" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B18" s="66" t="s">
         <v>66</v>
@@ -16837,7 +16837,7 @@
         <v>489</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F18" s="67" t="s">
         <v>563</v>
@@ -16861,7 +16861,7 @@
         <v>23</v>
       </c>
       <c r="M18" s="107" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="N18" s="84" t="s">
         <v>74</v>
@@ -17882,7 +17882,7 @@
     </row>
     <row r="19" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="65" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B19" s="66" t="s">
         <v>66</v>
@@ -17894,7 +17894,7 @@
         <v>489</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F19" s="67" t="s">
         <v>564</v>
@@ -17918,7 +17918,7 @@
         <v>24</v>
       </c>
       <c r="M19" s="107" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="N19" s="84" t="s">
         <v>74</v>
@@ -18939,7 +18939,7 @@
     </row>
     <row r="20" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="65" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B20" s="66" t="s">
         <v>66</v>
@@ -18951,7 +18951,7 @@
         <v>489</v>
       </c>
       <c r="E20" s="67" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F20" s="67" t="s">
         <v>564</v>
@@ -18975,7 +18975,7 @@
         <v>25</v>
       </c>
       <c r="M20" s="107" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N20" s="84" t="s">
         <v>74</v>
@@ -19996,7 +19996,7 @@
     </row>
     <row r="21" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="65" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B21" s="66" t="s">
         <v>66</v>
@@ -20008,7 +20008,7 @@
         <v>489</v>
       </c>
       <c r="E21" s="67" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F21" s="67" t="s">
         <v>564</v>
@@ -20032,7 +20032,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="107" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="N21" s="84" t="s">
         <v>74</v>
@@ -21053,7 +21053,7 @@
     </row>
     <row r="22" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="65" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B22" s="66" t="s">
         <v>66</v>
@@ -21065,7 +21065,7 @@
         <v>489</v>
       </c>
       <c r="E22" s="67" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F22" s="67" t="s">
         <v>565</v>
@@ -21089,7 +21089,7 @@
         <v>27</v>
       </c>
       <c r="M22" s="107" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="N22" s="84" t="s">
         <v>74</v>
@@ -22110,7 +22110,7 @@
     </row>
     <row r="23" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="65" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B23" s="66" t="s">
         <v>66</v>
@@ -22122,7 +22122,7 @@
         <v>489</v>
       </c>
       <c r="E23" s="67" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F23" s="67" t="s">
         <v>564</v>
@@ -22146,7 +22146,7 @@
         <v>28</v>
       </c>
       <c r="M23" s="107" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N23" s="84" t="s">
         <v>74</v>
@@ -23167,7 +23167,7 @@
     </row>
     <row r="24" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="65" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B24" s="66" t="s">
         <v>66</v>
@@ -23179,7 +23179,7 @@
         <v>489</v>
       </c>
       <c r="E24" s="67" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F24" s="67" t="s">
         <v>564</v>
@@ -23203,7 +23203,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="107" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="N24" s="84" t="s">
         <v>74</v>
@@ -24224,7 +24224,7 @@
     </row>
     <row r="25" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="65" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B25" s="66" t="s">
         <v>66</v>
@@ -24236,7 +24236,7 @@
         <v>489</v>
       </c>
       <c r="E25" s="67" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F25" s="67" t="s">
         <v>564</v>
@@ -24260,7 +24260,7 @@
         <v>30</v>
       </c>
       <c r="M25" s="107" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="N25" s="84" t="s">
         <v>74</v>
@@ -25281,7 +25281,7 @@
     </row>
     <row r="26" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="65" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B26" s="66" t="s">
         <v>66</v>
@@ -25293,7 +25293,7 @@
         <v>489</v>
       </c>
       <c r="E26" s="67" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F26" s="67" t="s">
         <v>565</v>
@@ -25317,7 +25317,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="107" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N26" s="84" t="s">
         <v>74</v>
@@ -26338,7 +26338,7 @@
     </row>
     <row r="27" spans="1:1026" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="65" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B27" s="66" t="s">
         <v>66</v>
@@ -26350,7 +26350,7 @@
         <v>489</v>
       </c>
       <c r="E27" s="67" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F27" s="67" t="s">
         <v>122</v>
@@ -26374,7 +26374,7 @@
         <v>32</v>
       </c>
       <c r="M27" s="107" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N27" s="84" t="s">
         <v>74</v>
@@ -26406,7 +26406,7 @@
     </row>
     <row r="28" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="65" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B28" s="66" t="s">
         <v>66</v>
@@ -26418,7 +26418,7 @@
         <v>489</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F28" s="67" t="s">
         <v>122</v>
@@ -26442,7 +26442,7 @@
         <v>33</v>
       </c>
       <c r="M28" s="107" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N28" s="84" t="s">
         <v>74</v>
@@ -27463,7 +27463,7 @@
     </row>
     <row r="29" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="65" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B29" s="66" t="s">
         <v>66</v>
@@ -27475,7 +27475,7 @@
         <v>489</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F29" s="67" t="s">
         <v>127</v>
@@ -27499,7 +27499,7 @@
         <v>34</v>
       </c>
       <c r="M29" s="107" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="N29" s="84" t="s">
         <v>74</v>
@@ -28520,7 +28520,7 @@
     </row>
     <row r="30" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="65" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B30" s="66" t="s">
         <v>66</v>
@@ -28532,7 +28532,7 @@
         <v>489</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F30" s="67" t="s">
         <v>127</v>
@@ -28544,7 +28544,7 @@
         <v>67</v>
       </c>
       <c r="I30" s="82" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J30" s="83" t="s">
         <v>93</v>
@@ -28556,7 +28556,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="107" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="N30" s="84" t="s">
         <v>74</v>
@@ -29577,7 +29577,7 @@
     </row>
     <row r="31" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="65" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B31" s="66" t="s">
         <v>66</v>
@@ -29589,7 +29589,7 @@
         <v>489</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F31" s="67" t="s">
         <v>136</v>
@@ -29613,7 +29613,7 @@
         <v>36</v>
       </c>
       <c r="M31" s="107" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="N31" s="84" t="s">
         <v>74</v>
@@ -30634,7 +30634,7 @@
     </row>
     <row r="32" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="65" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B32" s="66" t="s">
         <v>66</v>
@@ -30646,7 +30646,7 @@
         <v>489</v>
       </c>
       <c r="E32" s="67" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F32" s="67" t="s">
         <v>136</v>
@@ -30670,7 +30670,7 @@
         <v>37</v>
       </c>
       <c r="M32" s="107" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N32" s="84" t="s">
         <v>74</v>
@@ -31691,7 +31691,7 @@
     </row>
     <row r="33" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="65" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B33" s="66" t="s">
         <v>66</v>
@@ -31703,7 +31703,7 @@
         <v>489</v>
       </c>
       <c r="E33" s="67" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F33" s="67" t="s">
         <v>144</v>
@@ -31727,7 +31727,7 @@
         <v>38</v>
       </c>
       <c r="M33" s="107" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="N33" s="84" t="s">
         <v>74</v>
@@ -32748,7 +32748,7 @@
     </row>
     <row r="34" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="65" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B34" s="66" t="s">
         <v>66</v>
@@ -32760,7 +32760,7 @@
         <v>489</v>
       </c>
       <c r="E34" s="67" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F34" s="67" t="s">
         <v>144</v>
@@ -32784,7 +32784,7 @@
         <v>39</v>
       </c>
       <c r="M34" s="107" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N34" s="84" t="s">
         <v>74</v>
@@ -33805,7 +33805,7 @@
     </row>
     <row r="35" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="65" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B35" s="66" t="s">
         <v>66</v>
@@ -33817,7 +33817,7 @@
         <v>489</v>
       </c>
       <c r="E35" s="67" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F35" s="67" t="s">
         <v>497</v>
@@ -33841,7 +33841,7 @@
         <v>40</v>
       </c>
       <c r="M35" s="107" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N35" s="84" t="s">
         <v>74</v>
@@ -34862,7 +34862,7 @@
     </row>
     <row r="36" spans="1:1026" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="65" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B36" s="66" t="s">
         <v>66</v>
@@ -34874,7 +34874,7 @@
         <v>489</v>
       </c>
       <c r="E36" s="67" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F36" s="67" t="s">
         <v>497</v>
@@ -34898,7 +34898,7 @@
         <v>41</v>
       </c>
       <c r="M36" s="107" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N36" s="84" t="s">
         <v>74</v>
@@ -34930,7 +34930,7 @@
     </row>
     <row r="37" spans="1:1026" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="65" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B37" s="66" t="s">
         <v>66</v>
@@ -34942,7 +34942,7 @@
         <v>489</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F37" s="67" t="s">
         <v>497</v>
@@ -34966,7 +34966,7 @@
         <v>42</v>
       </c>
       <c r="M37" s="107" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="N37" s="84" t="s">
         <v>74</v>
@@ -34998,7 +34998,7 @@
     </row>
     <row r="38" spans="1:1026" s="76" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="65" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B38" s="66" t="s">
         <v>66</v>
@@ -35010,7 +35010,7 @@
         <v>489</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F38" s="67" t="s">
         <v>173</v>
@@ -35034,7 +35034,7 @@
         <v>43</v>
       </c>
       <c r="M38" s="107" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="N38" s="84" t="s">
         <v>74</v>
@@ -35053,7 +35053,7 @@
       <c r="X38" s="137"/>
       <c r="Y38" s="72"/>
       <c r="Z38" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA38" s="74"/>
       <c r="AB38" s="90"/>
@@ -35068,7 +35068,7 @@
     </row>
     <row r="39" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="65" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B39" s="66" t="s">
         <v>66</v>
@@ -35080,7 +35080,7 @@
         <v>489</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F39" s="67" t="s">
         <v>173</v>
@@ -35104,7 +35104,7 @@
         <v>44</v>
       </c>
       <c r="M39" s="107" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N39" s="84" t="s">
         <v>74</v>
@@ -35122,7 +35122,7 @@
       <c r="X39" s="137"/>
       <c r="Y39" s="72"/>
       <c r="Z39" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA39" s="74"/>
       <c r="AB39" s="90"/>
@@ -36127,7 +36127,7 @@
     </row>
     <row r="40" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="65" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B40" s="66" t="s">
         <v>66</v>
@@ -36139,7 +36139,7 @@
         <v>489</v>
       </c>
       <c r="E40" s="67" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F40" s="67" t="s">
         <v>179</v>
@@ -36163,7 +36163,7 @@
         <v>45</v>
       </c>
       <c r="M40" s="107" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="N40" s="84" t="s">
         <v>74</v>
@@ -36181,7 +36181,7 @@
       <c r="X40" s="137"/>
       <c r="Y40" s="72"/>
       <c r="Z40" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA40" s="74"/>
       <c r="AB40" s="90"/>
@@ -37186,7 +37186,7 @@
     </row>
     <row r="41" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="65" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B41" s="66" t="s">
         <v>66</v>
@@ -37198,7 +37198,7 @@
         <v>489</v>
       </c>
       <c r="E41" s="67" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F41" s="67" t="s">
         <v>179</v>
@@ -37222,7 +37222,7 @@
         <v>46</v>
       </c>
       <c r="M41" s="107" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="N41" s="84" t="s">
         <v>74</v>
@@ -37240,7 +37240,7 @@
       <c r="X41" s="137"/>
       <c r="Y41" s="72"/>
       <c r="Z41" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA41" s="74"/>
       <c r="AB41" s="90"/>
@@ -38245,7 +38245,7 @@
     </row>
     <row r="42" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="65" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B42" s="66" t="s">
         <v>66</v>
@@ -38257,7 +38257,7 @@
         <v>489</v>
       </c>
       <c r="E42" s="67" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F42" s="67" t="s">
         <v>460</v>
@@ -38281,7 +38281,7 @@
         <v>47</v>
       </c>
       <c r="M42" s="107" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N42" s="84" t="s">
         <v>74</v>
@@ -38299,7 +38299,7 @@
       <c r="X42" s="137"/>
       <c r="Y42" s="72"/>
       <c r="Z42" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA42" s="74"/>
       <c r="AB42" s="90"/>
@@ -39304,7 +39304,7 @@
     </row>
     <row r="43" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="65" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B43" s="66" t="s">
         <v>66</v>
@@ -39316,7 +39316,7 @@
         <v>489</v>
       </c>
       <c r="E43" s="67" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F43" s="67" t="s">
         <v>460</v>
@@ -39340,7 +39340,7 @@
         <v>48</v>
       </c>
       <c r="M43" s="107" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N43" s="84" t="s">
         <v>74</v>
@@ -39358,7 +39358,7 @@
       <c r="X43" s="137"/>
       <c r="Y43" s="72"/>
       <c r="Z43" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA43" s="74"/>
       <c r="AB43" s="90"/>
@@ -40363,7 +40363,7 @@
     </row>
     <row r="44" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="65" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B44" s="66" t="s">
         <v>66</v>
@@ -40375,7 +40375,7 @@
         <v>489</v>
       </c>
       <c r="E44" s="67" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F44" s="67" t="s">
         <v>498</v>
@@ -40399,7 +40399,7 @@
         <v>49</v>
       </c>
       <c r="M44" s="107" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="N44" s="84" t="s">
         <v>74</v>
@@ -40417,7 +40417,7 @@
       <c r="X44" s="137"/>
       <c r="Y44" s="72"/>
       <c r="Z44" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA44" s="74"/>
       <c r="AB44" s="90"/>
@@ -41422,7 +41422,7 @@
     </row>
     <row r="45" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="65" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B45" s="66" t="s">
         <v>66</v>
@@ -41434,7 +41434,7 @@
         <v>489</v>
       </c>
       <c r="E45" s="67" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F45" s="67" t="s">
         <v>498</v>
@@ -41458,7 +41458,7 @@
         <v>50</v>
       </c>
       <c r="M45" s="107" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="N45" s="84" t="s">
         <v>74</v>
@@ -41476,7 +41476,7 @@
       <c r="X45" s="137"/>
       <c r="Y45" s="72"/>
       <c r="Z45" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA45" s="74"/>
       <c r="AB45" s="90"/>
@@ -42481,7 +42481,7 @@
     </row>
     <row r="46" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="65" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B46" s="66" t="s">
         <v>66</v>
@@ -42493,7 +42493,7 @@
         <v>489</v>
       </c>
       <c r="E46" s="67" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F46" s="67" t="s">
         <v>469</v>
@@ -42517,7 +42517,7 @@
         <v>51</v>
       </c>
       <c r="M46" s="107" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N46" s="84" t="s">
         <v>74</v>
@@ -42535,7 +42535,7 @@
       <c r="X46" s="137"/>
       <c r="Y46" s="72"/>
       <c r="Z46" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA46" s="74"/>
       <c r="AB46" s="90"/>
@@ -43540,7 +43540,7 @@
     </row>
     <row r="47" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="65" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B47" s="66" t="s">
         <v>66</v>
@@ -43552,7 +43552,7 @@
         <v>489</v>
       </c>
       <c r="E47" s="67" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F47" s="67" t="s">
         <v>469</v>
@@ -43576,7 +43576,7 @@
         <v>52</v>
       </c>
       <c r="M47" s="107" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N47" s="84" t="s">
         <v>74</v>
@@ -43594,7 +43594,7 @@
       <c r="X47" s="137"/>
       <c r="Y47" s="72"/>
       <c r="Z47" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA47" s="74"/>
       <c r="AB47" s="90"/>
@@ -44599,7 +44599,7 @@
     </row>
     <row r="48" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="65" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B48" s="66" t="s">
         <v>66</v>
@@ -44611,7 +44611,7 @@
         <v>489</v>
       </c>
       <c r="E48" s="67" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F48" s="67" t="s">
         <v>499</v>
@@ -44635,7 +44635,7 @@
         <v>53</v>
       </c>
       <c r="M48" s="107" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="N48" s="84" t="s">
         <v>74</v>
@@ -44653,7 +44653,7 @@
       <c r="X48" s="137"/>
       <c r="Y48" s="72"/>
       <c r="Z48" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA48" s="74"/>
       <c r="AB48" s="90"/>
@@ -45658,7 +45658,7 @@
     </row>
     <row r="49" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="65" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B49" s="66" t="s">
         <v>66</v>
@@ -45670,7 +45670,7 @@
         <v>489</v>
       </c>
       <c r="E49" s="67" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F49" s="67" t="s">
         <v>499</v>
@@ -45694,7 +45694,7 @@
         <v>54</v>
       </c>
       <c r="M49" s="107" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="N49" s="84" t="s">
         <v>74</v>
@@ -45712,7 +45712,7 @@
       <c r="X49" s="137"/>
       <c r="Y49" s="72"/>
       <c r="Z49" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA49" s="74"/>
       <c r="AB49" s="90"/>
@@ -46717,7 +46717,7 @@
     </row>
     <row r="50" spans="1:1026" s="78" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="77" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B50" s="66" t="s">
         <v>66</v>
@@ -46729,7 +46729,7 @@
         <v>489</v>
       </c>
       <c r="E50" s="67" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F50" s="67" t="s">
         <v>499</v>
@@ -46753,7 +46753,7 @@
         <v>55</v>
       </c>
       <c r="M50" s="107" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N50" s="84" t="s">
         <v>74</v>
@@ -46772,7 +46772,7 @@
       <c r="X50" s="137"/>
       <c r="Y50" s="72"/>
       <c r="Z50" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA50" s="74"/>
       <c r="AB50" s="90"/>
@@ -46787,7 +46787,7 @@
     </row>
     <row r="51" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="77" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B51" s="66" t="s">
         <v>66</v>
@@ -46799,7 +46799,7 @@
         <v>489</v>
       </c>
       <c r="E51" s="67" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F51" s="67" t="s">
         <v>499</v>
@@ -46823,7 +46823,7 @@
         <v>56</v>
       </c>
       <c r="M51" s="107" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N51" s="84" t="s">
         <v>74</v>
@@ -46841,7 +46841,7 @@
       <c r="X51" s="137"/>
       <c r="Y51" s="72"/>
       <c r="Z51" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA51" s="74"/>
       <c r="AB51" s="90"/>
@@ -47846,7 +47846,7 @@
     </row>
     <row r="52" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="77" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B52" s="66" t="s">
         <v>66</v>
@@ -47858,7 +47858,7 @@
         <v>489</v>
       </c>
       <c r="E52" s="67" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F52" s="67" t="s">
         <v>499</v>
@@ -47882,7 +47882,7 @@
         <v>57</v>
       </c>
       <c r="M52" s="107" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="N52" s="84" t="s">
         <v>74</v>
@@ -47900,7 +47900,7 @@
       <c r="X52" s="137"/>
       <c r="Y52" s="72"/>
       <c r="Z52" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA52" s="74"/>
       <c r="AB52" s="90"/>
@@ -48905,7 +48905,7 @@
     </row>
     <row r="53" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="77" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B53" s="66" t="s">
         <v>66</v>
@@ -48917,7 +48917,7 @@
         <v>489</v>
       </c>
       <c r="E53" s="67" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F53" s="67" t="s">
         <v>499</v>
@@ -48941,7 +48941,7 @@
         <v>58</v>
       </c>
       <c r="M53" s="107" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="N53" s="84" t="s">
         <v>74</v>
@@ -48959,7 +48959,7 @@
       <c r="X53" s="137"/>
       <c r="Y53" s="72"/>
       <c r="Z53" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA53" s="74"/>
       <c r="AB53" s="90"/>
@@ -49964,7 +49964,7 @@
     </row>
     <row r="54" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="77" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B54" s="66" t="s">
         <v>66</v>
@@ -49976,7 +49976,7 @@
         <v>489</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F54" s="67" t="s">
         <v>499</v>
@@ -50000,7 +50000,7 @@
         <v>59</v>
       </c>
       <c r="M54" s="107" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="N54" s="84" t="s">
         <v>74</v>
@@ -50018,7 +50018,7 @@
       <c r="X54" s="137"/>
       <c r="Y54" s="72"/>
       <c r="Z54" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA54" s="74"/>
       <c r="AB54" s="90"/>
@@ -51023,7 +51023,7 @@
     </row>
     <row r="55" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="77" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B55" s="66" t="s">
         <v>66</v>
@@ -51035,7 +51035,7 @@
         <v>489</v>
       </c>
       <c r="E55" s="67" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F55" s="67" t="s">
         <v>499</v>
@@ -51059,7 +51059,7 @@
         <v>60</v>
       </c>
       <c r="M55" s="107" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="N55" s="84" t="s">
         <v>74</v>
@@ -51077,7 +51077,7 @@
       <c r="X55" s="137"/>
       <c r="Y55" s="72"/>
       <c r="Z55" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA55" s="74"/>
       <c r="AB55" s="90"/>
@@ -52082,7 +52082,7 @@
     </row>
     <row r="56" spans="1:1026" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="77" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B56" s="66" t="s">
         <v>66</v>
@@ -52094,7 +52094,7 @@
         <v>489</v>
       </c>
       <c r="E56" s="67" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F56" s="67" t="s">
         <v>499</v>
@@ -52118,7 +52118,7 @@
         <v>61</v>
       </c>
       <c r="M56" s="107" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="N56" s="84" t="s">
         <v>74</v>
@@ -52136,7 +52136,7 @@
       <c r="X56" s="137"/>
       <c r="Y56" s="72"/>
       <c r="Z56" s="87" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AA56" s="74"/>
       <c r="AB56" s="90"/>
@@ -71606,7 +71606,7 @@
       <c r="AJ395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l8y03mXk7SOWxZNDh+NNWzQ/azJqO1AJSQTvwG0Yaz94wgaD3PApXOBnwwmwNFulXcJ70tK6Gs684owG+AdrQA==" saltValue="9CEXPaj4LhzUbhz9GTfvuw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d5l5lBtmpdfXa7cYIa5uzQTlw50ONpAMhtxTVkurw1r2wM0GE5plETvkkZ7esVVo+q3y1B+WjXovnNQNWGZ13Q==" saltValue="RHa9fiTZeEaZaNRqGozrkw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>
@@ -71773,8 +71773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL313"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -71872,7 +71872,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C2" s="114" t="s">
         <v>487</v>
@@ -71926,7 +71926,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="108" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C3" s="119" t="s">
         <v>450</v>
@@ -72187,7 +72187,7 @@
         <v>114</v>
       </c>
       <c r="G10" s="123" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="M10" s="118" t="s">
         <v>116</v>
@@ -72494,7 +72494,7 @@
       <c r="B23" s="125"/>
       <c r="C23" s="125"/>
       <c r="D23" s="108" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F23" s="116" t="s">
         <v>163</v>
@@ -74730,7 +74730,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2HfNAnAZe8cw1Z6kX7VEJqzcxnBHVYx2u05k0VaWJMR6E3b7ON7OBaPqFk9OYbsA9Mi+lUZI7YvAAM9f3wFtdQ==" saltValue="UO/mt68fhWrWb1Jn+kDPuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xAk8ttJCmwqDwOUEdb9b0mUMXwlSJuQjjrpGlYRPl5KKLK3JOLg9T0E//Gh3OUCFvYb6eGajptQS79v1klam5A==" saltValue="mz5i4kLkWTnCE23ojMiPRA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
